--- a/biology/Botanique/Plagiogrammaceae/Plagiogrammaceae.xlsx
+++ b/biology/Botanique/Plagiogrammaceae/Plagiogrammaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Plagiogrammaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Bacillariophyceae et de l’ordre des Plagiogrammales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Plagiogramma, de plagio-, oblique, et -gramm, « raie, ligne ».
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Plagiogramma présente, en « vue de ceinture », des cellules rectangulaires-tabulaires, sans bandes intercalaires ni septa[2]. Les valves sont linéaires ou lancéolées, parfois à bords ondulés, avec des côtes qui pénètrent plus ou moins profondément dans la partie interne de la cellule sous forme de pseudosepta. On note habituellement la présence de deux paires de côtes, l'une près du centre, l'autre près de l'extrémité de la valve. La paroi cellulaire montre des nervures transapicales (qui traverse les apex) et longitudinales plus ou moins délicates au moyen desquelles la membrane est aréolée. Des point (puncta) et des aréoles sont disposés en rangées longitudinales régulières[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Plagiogramma présente, en « vue de ceinture », des cellules rectangulaires-tabulaires, sans bandes intercalaires ni septa. Les valves sont linéaires ou lancéolées, parfois à bords ondulés, avec des côtes qui pénètrent plus ou moins profondément dans la partie interne de la cellule sous forme de pseudosepta. On note habituellement la présence de deux paires de côtes, l'une près du centre, l'autre près de l'extrémité de la valve. La paroi cellulaire montre des nervures transapicales (qui traverse les apex) et longitudinales plus ou moins délicates au moyen desquelles la membrane est aréolée. Des point (puncta) et des aréoles sont disposés en rangées longitudinales régulières.
 </t>
         </is>
       </c>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,9 +617,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (25 mai 2022)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (25 mai 2022) :
 Coccinelloidea Chunlian Li, Górecka &amp; Witkowski, 2020
 Dimeregramma Ralfs, 1861
 Dimeregrammopsis M.Ricard, 1987
@@ -639,9 +659,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Plagiogrammaceae De Toni, 1890[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Plagiogrammaceae De Toni, 1890.
 </t>
         </is>
       </c>
